--- a/biology/Microbiologie/Pyrolobus/Pyrolobus.xlsx
+++ b/biology/Microbiologie/Pyrolobus/Pyrolobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrolobus fumarii est une espèce d'archées hyperthermophiles connue pour sa capacité à survivre à des températures extrêmement élevées. C'est le seul représentant connu du genre Pyrolobus appartenant au phylum des Crenarchaeota.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrolobus fumarii a été découvert pour la première fois en 1997 aux abords d'une cheminée hydrothermale sous-marine sur la dorsale Atlantique.
-Un microbe de la même famille, temporairement baptisé Strain 121 (« Souche 121 »), a réussi quant à lui à survivre dans un autoclave à 121 degrés Celsius pendant 10 heures. Il n'a finalement pas survécu à une température de 130 degrés Celsius[2],[3].
-Depuis 2021, ce genre fait partie du phylum Thermoproteota[4].
+Un microbe de la même famille, temporairement baptisé Strain 121 (« Souche 121 »), a réussi quant à lui à survivre dans un autoclave à 121 degrés Celsius pendant 10 heures. Il n'a finalement pas survécu à une température de 130 degrés Celsius,.
+Depuis 2021, ce genre fait partie du phylum Thermoproteota.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du genre Pyrolobus est la suivante : Pyr.o.lo’bus Gr. neut. n. pŷr, feu; Gr. masc. n. lobos, lobe; N.L. masc. n. Pyrolobus, ce qui signifie le lobe de feu[5],[1]. Celle de l'espèce Pyrolobus fumarii est fum.a’ri.i L. gen. neut. n. fumarii, de la cheminée, pour faire référence au biotope des fumeurs noirs[6],[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Pyrolobus est la suivante : Pyr.o.lo’bus Gr. neut. n. pŷr, feu; Gr. masc. n. lobos, lobe; N.L. masc. n. Pyrolobus, ce qui signifie le lobe de feu,. Celle de l'espèce Pyrolobus fumarii est fum.a’ri.i L. gen. neut. n. fumarii, de la cheminée, pour faire référence au biotope des fumeurs noirs,.
 </t>
         </is>
       </c>
@@ -576,9 +595,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrolobus fumarii est l'un des micro-organismes les plus hyperthermophiles connus. Il peut vivre et se multiplier jusqu'à 113 °C et sa croissance est impossible pour des températures inférieures à 90 °C. Il s'agit d'une espèce aérobie facultative, chimiolithoautotrophe. Il a pu être mis en culture à une pression de 250 bars[1]. Ses conditions de culture nécessitent aussi une salinité de 1% à 4% avec un optimum à 1,7 % ainsi qu'un pH compris entre 4 et 6,5 (optimum de 5,5. Le pourcentage en bases GC est de 53%[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrolobus fumarii est l'un des micro-organismes les plus hyperthermophiles connus. Il peut vivre et se multiplier jusqu'à 113 °C et sa croissance est impossible pour des températures inférieures à 90 °C. Il s'agit d'une espèce aérobie facultative, chimiolithoautotrophe. Il a pu être mis en culture à une pression de 250 bars. Ses conditions de culture nécessitent aussi une salinité de 1% à 4% avec un optimum à 1,7 % ainsi qu'un pH compris entre 4 et 6,5 (optimum de 5,5. Le pourcentage en bases GC est de 53%.
 </t>
         </is>
       </c>
@@ -607,9 +628,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrolobus fumarii est une bactérie marine vivant dans les profondeurs (isolé à 3 650 m en dessous du niveau de la mer) au niveau des fumeurs noirs[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrolobus fumarii est une bactérie marine vivant dans les profondeurs (isolé à 3 650 m en dessous du niveau de la mer) au niveau des fumeurs noirs.
 </t>
         </is>
       </c>
